--- a/biology/Botanique/Anne-Marie_Bogaert-Damin/Anne-Marie_Bogaert-Damin.xlsx
+++ b/biology/Botanique/Anne-Marie_Bogaert-Damin/Anne-Marie_Bogaert-Damin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Marie Damin, née le 6 mai 1944 à Namur (Belgique), est une historienne belge spécialisée dans les livres anciens de botanique. Elle épouse en 1973 Henri Bogaert dont elle a trois enfants : Antoine, Matthieu et Julie. Sa carrière se déroule de 1970 à 2009 comme conservateur à la bibliothèque universitaire Moretus-Plantin de l’Université de Namur[1]. Elle publie de nombreux ouvrages mettant en valeur les collections d’ouvrages anciens de sciences naturelles[2]. Ses publications sont accompagnées d’expositions et de visites-conférences qui ont eu un grand retentissement.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Damin, née le 6 mai 1944 à Namur (Belgique), est une historienne belge spécialisée dans les livres anciens de botanique. Elle épouse en 1973 Henri Bogaert dont elle a trois enfants : Antoine, Matthieu et Julie. Sa carrière se déroule de 1970 à 2009 comme conservateur à la bibliothèque universitaire Moretus-Plantin de l’Université de Namur. Elle publie de nombreux ouvrages mettant en valeur les collections d’ouvrages anciens de sciences naturelles. Ses publications sont accompagnées d’expositions et de visites-conférences qui ont eu un grand retentissement.
 </t>
         </is>
       </c>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">De 1968 à 1971
-Après avoir fait des études en histoire à l’Université de Namur et à l’Université Catholique de Louvain, elle est recrutée par celle-ci, d’abord, et par l’Université de Namur, ensuite, comme assistante au département d’histoire. Elle y encadre les étudiants et donne le séminaire d’histoire contemporaine. Durant cette période, elle publie un ouvrage sur la métallurgie dans le Namurois du XVIe à 1815[3]. Ensuite, elle publie avec Luc Maréchal une vaste étude historique et statistique de l’ensemble urbain bruxellois à partir des recensements de 1846 à 1961.
-De 1971 à 1979
-À la demande du Recteur le père J. Denis s.j.[4], Anne-Marie Damin participe à la conception et à la mise en œuvre d’une nouvelle bibliothèque centrale pour l’université de Namur qui est l'œuvre du célèbre architecte Roger Bastin[5]. Celle-ci est inaugurée en 1979. En 1971, le recteur de l’Université de Namur l’envoie en stage pendant un an à la bibliothèque royale à Bruxelles. Par la suite, elle poursuit ses activités au département d’histoire tout en commençant comme bibliothécaire dans ce qui sera la future bibliothèque. Après l’inauguration de celle-ci en 1979, elle assure la direction des services au public et du prêt entre bibliothèque en Belgique et à l’étranger.
-Depuis 1980
-La bibliothèque Moretus-Plantin est issue de la fusion de trois ensembles très importants d’ouvrages : la bibliothèque des Belles-Lettres fondée par le père jésuite Moretus au Collège des Jésuites de Namur, une partie de la bibliothèque du théologat jésuite d’Egenhoven (Leuven) à la suite de la scission de la province jésuite en une province flamande et une province francophone et diverses collections privées[6]. Lors de la constitution de la nouvelle bibliothèque, le catalogage des livres fut précédé d’un tri. C’est à ce moment qu’elle se rend compte de la valeur historique de nombreux ouvrages  et le début d’une longue suite de publications pour mettre en valeur la collection de livres anciens de sciences naturelles dont la partie botanique s’est révélée progressivement comme une des plus prestigieuses. Cette collection trouve son origine dans les collections rassemblées au XIXe siècle, d’une part, par le père jésuite Auguste Bellynck (1814-1877)[7], professeur de botanique au collège N-D de la paix à Namur et, d’autre part, par un de ses élèves : le comte Alfred de Limminghe (1834-1861)[8]. « Après la mort du comte de Limminghe, ses collections botaniques furent dispersées. Une partie fut donnée au collège Notre-Dame de la Paix, à Namur et la partie cryptogamique de son herbier fut acquise par le jardin botanique de Bruxelles » (Biographie nationale, T. XII, p. 206-208).
-La mise en valeur des collections de sciences naturelles a été réalisée par des expositions et des conférences qui ont eu de plus en plus d'audience au fil du temps[9].
-En 2007, Anne-Marie Bogaert-Damin convainc le département de botanique de l’université de confier à la bibliothèque la collection de modèles botaniques Brendel qui était utilisée comme outil pédagogique dans les cours de botaniques à la fin du XIXe et au début du XXe siècle. Elle se met immédiatement au travail et prépare un livre sur le sujet intitulé « Voyage au cœur des fleurs »[10],[11]. Parallèlement, elle prépare une exposition de ces modèles à la bibliothèque Moretus Plantin dans le cadre d’Europalia Europa[12],[13]. Ultérieurement, Philippe Martin a publié un ouvrage concernant l'entièreté de la collection de l'Université[14].
-En 2014, elle contribue à la publication de la traduction du latin d'un texte de Michael Friedrich LOCHNER sur l'ananas. Elle en rédige l'introduction[15]. Pourquoi le latin? "Depuis les manuscrits du Moyen Âge et, ensuite, les incunables jusqu'au XVIIe siècle, le latin est la langue des clercs, des savants et de l'enseignement. Le latin est aussi la langue commune, vecteur de communication au-delà des dialectes locaux alors très nombreux en Europe. En botanique, l'utilisation et l'explication de la terminologie technique et du vocabulaire ont fait l'objet d'un dictionnaire spécifique au latin botanique"[16],[17].
-En 2021, Anne-Marie Bogaert-Damin publie un article qui synthétise ses travaux sur les livres anciens de botanique et, plus particulièrement, sur les illustrations contenues dans ces livres dont elle montre que celles-ci sont un apport essentiel dans l’histoire de la botanique et, plus généralement, dans l’histoire des sciences naturelles[18]. Aux grandes étapes de l’évolution des idées en botanique sont intimement liés des livres et leurs auteurs[19], mais aussi le progrès dans la représentation des plantes. Celle-ci combine ce que l’auteur exprime dans son texte et ce que les artistes, dessinateur et graveur, montrent dans l’image. L’image est indissociable du texte. À travers des livres marquants, cet article relate l’histoire de l’illustration des fleurs dans les livres de botanique des débuts de l’imprimerie au XIXe siècle. Les progrès des connaissances sont accompagnés de ceux des techniques d’illustration. L’illustration des plantes et des fleurs est de plus en plus précise et détaillée. Si elle couvre de plus en plus la diversité du végétal sur tous les continents, elle est aussi de plus en plus esthétique et artistique.
+          <t>De 1968 à 1971</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait des études en histoire à l’Université de Namur et à l’Université Catholique de Louvain, elle est recrutée par celle-ci, d’abord, et par l’Université de Namur, ensuite, comme assistante au département d’histoire. Elle y encadre les étudiants et donne le séminaire d’histoire contemporaine. Durant cette période, elle publie un ouvrage sur la métallurgie dans le Namurois du XVIe à 1815. Ensuite, elle publie avec Luc Maréchal une vaste étude historique et statistique de l’ensemble urbain bruxellois à partir des recensements de 1846 à 1961.
 </t>
         </is>
       </c>
@@ -548,13 +557,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>De 1971 à 1979</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la demande du Recteur le père J. Denis s.j., Anne-Marie Damin participe à la conception et à la mise en œuvre d’une nouvelle bibliothèque centrale pour l’université de Namur qui est l'œuvre du célèbre architecte Roger Bastin. Celle-ci est inaugurée en 1979. En 1971, le recteur de l’Université de Namur l’envoie en stage pendant un an à la bibliothèque royale à Bruxelles. Par la suite, elle poursuit ses activités au département d’histoire tout en commençant comme bibliothécaire dans ce qui sera la future bibliothèque. Après l’inauguration de celle-ci en 1979, elle assure la direction des services au public et du prêt entre bibliothèque en Belgique et à l’étranger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Depuis 1980</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bibliothèque Moretus-Plantin est issue de la fusion de trois ensembles très importants d’ouvrages : la bibliothèque des Belles-Lettres fondée par le père jésuite Moretus au Collège des Jésuites de Namur, une partie de la bibliothèque du théologat jésuite d’Egenhoven (Leuven) à la suite de la scission de la province jésuite en une province flamande et une province francophone et diverses collections privées. Lors de la constitution de la nouvelle bibliothèque, le catalogage des livres fut précédé d’un tri. C’est à ce moment qu’elle se rend compte de la valeur historique de nombreux ouvrages  et le début d’une longue suite de publications pour mettre en valeur la collection de livres anciens de sciences naturelles dont la partie botanique s’est révélée progressivement comme une des plus prestigieuses. Cette collection trouve son origine dans les collections rassemblées au XIXe siècle, d’une part, par le père jésuite Auguste Bellynck (1814-1877), professeur de botanique au collège N-D de la paix à Namur et, d’autre part, par un de ses élèves : le comte Alfred de Limminghe (1834-1861). « Après la mort du comte de Limminghe, ses collections botaniques furent dispersées. Une partie fut donnée au collège Notre-Dame de la Paix, à Namur et la partie cryptogamique de son herbier fut acquise par le jardin botanique de Bruxelles » (Biographie nationale, T. XII, p. 206-208).
+La mise en valeur des collections de sciences naturelles a été réalisée par des expositions et des conférences qui ont eu de plus en plus d'audience au fil du temps.
+En 2007, Anne-Marie Bogaert-Damin convainc le département de botanique de l’université de confier à la bibliothèque la collection de modèles botaniques Brendel qui était utilisée comme outil pédagogique dans les cours de botaniques à la fin du XIXe et au début du XXe siècle. Elle se met immédiatement au travail et prépare un livre sur le sujet intitulé « Voyage au cœur des fleurs »,. Parallèlement, elle prépare une exposition de ces modèles à la bibliothèque Moretus Plantin dans le cadre d’Europalia Europa,. Ultérieurement, Philippe Martin a publié un ouvrage concernant l'entièreté de la collection de l'Université.
+En 2014, elle contribue à la publication de la traduction du latin d'un texte de Michael Friedrich LOCHNER sur l'ananas. Elle en rédige l'introduction. Pourquoi le latin? "Depuis les manuscrits du Moyen Âge et, ensuite, les incunables jusqu'au XVIIe siècle, le latin est la langue des clercs, des savants et de l'enseignement. Le latin est aussi la langue commune, vecteur de communication au-delà des dialectes locaux alors très nombreux en Europe. En botanique, l'utilisation et l'explication de la terminologie technique et du vocabulaire ont fait l'objet d'un dictionnaire spécifique au latin botanique",.
+En 2021, Anne-Marie Bogaert-Damin publie un article qui synthétise ses travaux sur les livres anciens de botanique et, plus particulièrement, sur les illustrations contenues dans ces livres dont elle montre que celles-ci sont un apport essentiel dans l’histoire de la botanique et, plus généralement, dans l’histoire des sciences naturelles. Aux grandes étapes de l’évolution des idées en botanique sont intimement liés des livres et leurs auteurs, mais aussi le progrès dans la représentation des plantes. Celle-ci combine ce que l’auteur exprime dans son texte et ce que les artistes, dessinateur et graveur, montrent dans l’image. L’image est indissociable du texte. À travers des livres marquants, cet article relate l’histoire de l’illustration des fleurs dans les livres de botanique des débuts de l’imprimerie au XIXe siècle. Les progrès des connaissances sont accompagnés de ceux des techniques d’illustration. L’illustration des plantes et des fleurs est de plus en plus précise et détaillée. Si elle couvre de plus en plus la diversité du végétal sur tous les continents, elle est aussi de plus en plus esthétique et artistique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Livres
-Anne-Marie Bogaert-Damin, L'Industrie du fer du XVIe siècle à 1815: le monde des férons, J. Duculot, coll. « Wallonie, art et histoire », 1977 (ISBN 978-2-8011-0142-1)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anne-Marie Bogaert-Damin, L'Industrie du fer du XVIe siècle à 1815: le monde des férons, J. Duculot, coll. « Wallonie, art et histoire », 1977 (ISBN 978-2-8011-0142-1)
 Anne-Marie Bogaert-Damin, Luc Maréchal et Roger Mols, Bruxelles: développement de l'ensemble urbain 1846-1961 analyse historique et statistique des recensements, Presses universitaires de Namur, coll. « Bibliothèque de la Faculté de philosophie et lettres », 1978 (ISBN 978-2-87037-089-6)
 Anne-Marie Bogaert-Damin, Le livre illustré : histoire et techniques – Presses Universitaires de Namur : Bibliothèque Universitaire Moretus Plantin, 1985. - 59 p.
 Anne-Marie Bogaert-Damin et J. Piron, Livres de fleurs du XVIe   au   XXe siècle dans les collections de la Bibliothèque universitaire Moretus Plantin - Presses Universitaires de Namur : Bibliothèque Universitaire Moretus Plantin, 1984. - 147 p. : ill.
@@ -568,9 +660,43 @@
 Anne-Marie Bogaert-Damin et Isabelle Jourdy, Quand la plante se livre ... voyages en botanique, Dole : Hôtel-Dieu, [ca 2005] 32 p. : ill.
 Anne-Marie Bogaert-Damin, Qui est l’auteur ? L'illustration botanique du XVIe   au   XXe siècle : Actes du colloque Voyages en botanique, Besançon, 16 et 17 juin 2005, Faculté de médecine de Besançon par Anne-Marie Bogaert-Damin
 Anne-Marie Bogaert-Damin, Voyage au coeur des fleurs: modèles botaniques et flores d'Europe au XIXe sìecle, Presses universitaires de Namur, coll. « Publication », 2007 (ISBN 978-2-87037-565-5)
-Anne-Marie Bibliothèque universitaire Moretus Plantin et Jacques André Piron, Livres de fleurs du XVIe au XXe siècle: dans les collections de la Bibliothèque universitaire Moretus Plantin, Presses universitaires de Namur, coll. « Publication », 2018 (ISBN 978-2-39029-002-5)
-Articles
-Anne-Marie Bogaert-Damin, « Fleurs illustrées dans les livres de botanique du XVIème au XIXème siècle », Arts et sciences, vol. 5, no 1,‎ 2021 (DOI 10.21494/ISTE.OP.2021.0621, lire en ligne, consulté le 17 février 2024)
+Anne-Marie Bibliothèque universitaire Moretus Plantin et Jacques André Piron, Livres de fleurs du XVIe au XXe siècle: dans les collections de la Bibliothèque universitaire Moretus Plantin, Presses universitaires de Namur, coll. « Publication », 2018 (ISBN 978-2-39029-002-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Bogaert-Damin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anne-Marie Bogaert-Damin, « Fleurs illustrées dans les livres de botanique du XVIème au XIXème siècle », Arts et sciences, vol. 5, no 1,‎ 2021 (DOI 10.21494/ISTE.OP.2021.0621, lire en ligne, consulté le 17 février 2024)
 (nl) Anne-Marie Bogaert-Damin, « L’illustration des revues d’horticulture en Belgique au XIX e siècle », In Monte Artium, vol. 7,‎ janvier 2014, p. 155–176 (ISSN 2031-3098 et 2507-0312, DOI 10.1484/J.IMA.5.103290, lire en ligne, consulté le 17 février 2024)</t>
         </is>
       </c>
